--- a/biology/Botanique/Lycopodiella/Lycopodiella.xlsx
+++ b/biology/Botanique/Lycopodiella/Lycopodiella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Lycopodiella regroupe une quarantaine d'espèces appartenant à la famille des Lycopodiacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot Lycopodiella est le diminutif du nom de genre Lycopodium, l'espèce type est en effet de petite taille (Lycopodiella inundata).
 </t>
@@ -542,7 +556,9 @@
           <t>Description générale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Lycopodiella regroupe des Lycopodes ayant l'aspect de grandes mousses. Ils présentent une tige horizontale enracinée portant des rameaux dressés. Ces rameaux portent des feuilles tout autour de l'axe (symétrie axiale) et ils prennent naissance en position dorsale sur la tige horizontale.
 Les sporanges sont portés par des sporophylles groupés en épis au sommet des rameaux dressés.
@@ -575,7 +591,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces Lycopodes sont largement répandus dans les deux hémisphères.
 </t>
@@ -606,7 +624,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Lycopodiella alopecuroides
 Lycopodiella appressa
